--- a/files/meckenheimer-sv.xlsx
+++ b/files/meckenheimer-sv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schor\Desktop\VB 20,21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07892F2D-C740-43C2-AE0E-161EEF262016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B402579A-3D86-479C-A8F8-A08A26B3255D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -822,13 +822,13 @@
     <t>Pro Drittel 30</t>
   </si>
   <si>
-    <t>Alle, wenn der Abstand von 1,5 m nicht eingehalten wird, Zuschauer, beim Betreten und Verlassen der Halle</t>
-  </si>
-  <si>
     <t>in der gesamten Halle 300 unter Wahrung der Abstandsregeln</t>
   </si>
   <si>
     <t>Meckenheimer SV Volleyball-Hygienekonzept</t>
+  </si>
+  <si>
+    <t>Alle, wenn der Abstand von 1,5 m nicht eingehalten wird, außer die Sportler und Schiedsrichter im Wettkampfbereich. Zuschauer, beim Betreten und Verlassen der Halle</t>
   </si>
 </sst>
 </file>
@@ -2292,7 +2292,7 @@
   <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="2" spans="1:1024" ht="20.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -5421,7 +5421,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:1024" ht="24" customHeight="1">
@@ -5445,7 +5445,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:1024" ht="24" customHeight="1">
